--- a/Milestones (1) (2).xlsx
+++ b/Milestones (1) (2).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA8967-1857-477D-AC7B-028F5B37401F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="1200" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>MILESTONES</t>
   </si>
@@ -111,12 +112,15 @@
   </si>
   <si>
     <t>WIP</t>
+  </si>
+  <si>
+    <t>Yedija Jody Aditya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
@@ -457,11 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -765,7 +769,7 @@
         <v>43645</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>28</v>
@@ -785,7 +789,7 @@
         <v>43645</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>28</v>
@@ -805,7 +809,7 @@
         <v>43645</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>28</v>

--- a/Milestones (1) (2).xlsx
+++ b/Milestones (1) (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA8967-1857-477D-AC7B-028F5B37401F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7737E-DC94-42F5-89B0-23692DC3B4CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="1200" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Milestones (1) (2).xlsx
+++ b/Milestones (1) (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7737E-DC94-42F5-89B0-23692DC3B4CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314236AE-E233-425A-ADBE-548FBB8A9D1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="1200" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -769,7 +769,7 @@
         <v>43645</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>28</v>
@@ -809,7 +809,7 @@
         <v>43645</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>28</v>
@@ -829,7 +829,7 @@
         <v>43645</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>28</v>
